--- a/QAQC/IntoTidBits/Encounter Forms/2025/output/UEF_AST_SNS_SE.xlsx
+++ b/QAQC/IntoTidBits/Encounter Forms/2025/output/UEF_AST_SNS_SE.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/sander_elliott_maine_edu/Documents/Desktop/Github/Sturgeon_TidBits/QAQC/IntoTidBits/Encounter Forms/2025/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4799FC4D-1C54-427D-B590-01D68AF0BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9EDC0E-02E5-4C77-A3FE-C3429E66A55E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4799FC4D-1C54-427D-B590-01D68AF0BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA294174-A6C4-4EBC-81F1-E1322374FABA}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Capture" sheetId="7" r:id="rId1"/>
@@ -2443,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F54DC-EBEB-4696-969D-5912A641919D}">
   <dimension ref="A1:AR203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB58" sqref="AB58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9005,7 +9006,6 @@
       <c r="O203" s="93"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A38" xr:uid="{5C8EFBDA-005D-4088-A00C-F6C183A2275A}">
@@ -9111,8 +9111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B11B871-A686-440D-B472-B5E3630A47C8}">
   <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
